--- a/Documentacion/ev1_plantillastakeholders.xlsx
+++ b/Documentacion/ev1_plantillastakeholders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progrmacion de software\Tecnica\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184650EC-423F-42F2-9516-3A9D3B7EF7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,9 +484,6 @@
     <t>El sistema debe permitir  almacenar la informacion de maneria distribuida</t>
   </si>
   <si>
-    <t>Lector de cofigo der barras</t>
-  </si>
-  <si>
     <t>Lector de huellas Dactilares</t>
   </si>
   <si>
@@ -666,11 +662,14 @@
   <si>
     <t>H-U-045</t>
   </si>
+  <si>
+    <t>Lector de codigo der barras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,60 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1096,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,7 +1179,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{90E7053F-38E7-4313-8E3D-2837DCD5FFB6}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1272,23 +1271,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1324,23 +1306,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1516,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,51 +1505,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1633,10 +1598,10 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -1749,14 +1714,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1765,70 +1730,70 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1837,97 +1802,97 @@
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -1936,90 +1901,100 @@
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="C31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="C32" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="C33" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
+      <c r="B36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C14:F14"/>
@@ -2027,11 +2002,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
@@ -2041,11 +2011,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2054,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103A36DF-6B17-480E-91F3-0C63CD0D1D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,196 +2035,196 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2277,10 +2242,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EB59FF-3593-4A49-A18B-52D709B889F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2295,419 +2260,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="48" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="49" t="s">
+      <c r="D24" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="49" t="s">
+      <c r="F24" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Documentacion/ev1_plantillastakeholders.xlsx
+++ b/Documentacion/ev1_plantillastakeholders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748926B-0CC5-4E0C-9B7D-9F438BB3D320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +670,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,6 +1097,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1112,39 +1146,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1180,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1271,6 +1272,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1306,6 +1324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1481,10 +1516,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -1505,51 +1540,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1714,14 +1749,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1730,70 +1765,70 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1802,24 +1837,24 @@
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1838,61 +1873,61 @@
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -1901,100 +1936,90 @@
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C14:F14"/>
@@ -2011,6 +2036,16 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2019,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,11 +2277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,11 +2407,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>

--- a/Documentacion/ev1_plantillastakeholders.xlsx
+++ b/Documentacion/ev1_plantillastakeholders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748926B-0CC5-4E0C-9B7D-9F438BB3D320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
   <si>
     <t>NOMBRE DE LA ORGANIZACIÓN</t>
   </si>
@@ -666,12 +665,48 @@
   <si>
     <t>Lector de codigo der barras</t>
   </si>
+  <si>
+    <t>Inhabilitar/Habilitar proceso de votación</t>
+  </si>
+  <si>
+    <t>Agregar propuestas</t>
+  </si>
+  <si>
+    <t>Consultar candidato</t>
+  </si>
+  <si>
+    <t>Agregar candidato</t>
+  </si>
+  <si>
+    <t>Actualizar candidato</t>
+  </si>
+  <si>
+    <t>Eliminar candidato</t>
+  </si>
+  <si>
+    <t>Registrar proceso de votación</t>
+  </si>
+  <si>
+    <t>Consultar proceso de votación</t>
+  </si>
+  <si>
+    <t>Actualizar proceso de votación</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Eliminar aspirantes</t>
+  </si>
+  <si>
+    <t>Generar reporte de votación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +783,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1014,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1077,7 +1127,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,6 +1146,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,7 +1239,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1272,23 +1331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1324,23 +1366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1516,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -1540,51 +1565,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1749,14 +1774,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1765,70 +1790,70 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1837,97 +1862,97 @@
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -1936,87 +1961,87 @@
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2054,220 +2079,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="A2:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C3:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="32"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="C3" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="C4" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="C5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="C6" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="D8" s="40"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="C25" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2277,10 +2333,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2295,418 +2351,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31" t="s">
+      <c r="C7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="31" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Documentacion/ev1_plantillastakeholders.xlsx
+++ b/Documentacion/ev1_plantillastakeholders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E01C8-4E06-476B-9C47-6B65FA52A980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>NOMBRE DE LA ORGANIZACIÓN</t>
   </si>
@@ -701,11 +702,26 @@
   <si>
     <t>Generar reporte de votación</t>
   </si>
+  <si>
+    <t>5.5.51</t>
+  </si>
+  <si>
+    <t>10.16.0</t>
+  </si>
+  <si>
+    <t>1.40.1</t>
+  </si>
+  <si>
+    <t>SAT LD101</t>
+  </si>
+  <si>
+    <t>U Are 4500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1156,11 +1172,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1188,27 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,7 +1255,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1253,6 +1269,204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622007</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>370607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F0BF6C-C9E3-4E7F-A7CF-A01484389454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13838465" y="8313963"/>
+          <a:ext cx="5792721" cy="4724894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3464626</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F592832F-E6C2-4E3D-AABB-3006B26AD7B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10368644" y="8504465"/>
+          <a:ext cx="3056411" cy="3959082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>843644</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>874524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A41C51-1F5E-40B0-B8FB-869B2FB82D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14292944" y="14067065"/>
+          <a:ext cx="4602880" cy="2277835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734784</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247269</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Lector de Huella U are U 4500 es el dispositivo de sensor de hueva óptico mediante usb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239DBECD-B612-4703-844D-2A1011913C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10695213" y="13770429"/>
+          <a:ext cx="3023127" cy="2598964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,6 +1545,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1366,6 +1597,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,16 +1789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="1" hidden="1" customWidth="1"/>
@@ -1565,51 +1813,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1774,14 +2022,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1790,261 +2038,282 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-    </row>
-    <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="B30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C14:F14"/>
@@ -2061,29 +2330,20 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C3:C25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,6 +2585,11 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="21"/>
     </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1117544613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documentacion/ev1_plantillastakeholders.xlsx
+++ b/Documentacion/ev1_plantillastakeholders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E01C8-4E06-476B-9C47-6B65FA52A980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
@@ -18,16 +17,17 @@
     <sheet name="estado" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,6 +1178,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1190,42 +1229,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,7 +1262,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1545,23 +1552,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1597,23 +1587,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1789,10 +1762,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1813,51 +1786,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -2022,14 +1995,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -2038,70 +2011,70 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -2110,98 +2083,98 @@
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -2210,12 +2183,12 @@
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2224,12 +2197,12 @@
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -2238,24 +2211,24 @@
       <c r="B30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -2264,12 +2237,12 @@
       <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -2278,12 +2251,12 @@
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
@@ -2292,28 +2265,18 @@
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C14:F14"/>
@@ -2330,6 +2293,16 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2339,11 +2312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2334,7 @@
       <c r="B2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="61" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="40"/>
@@ -2370,7 +2343,7 @@
       <c r="B3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>170</v>
       </c>
       <c r="D3" s="41"/>
@@ -2379,7 +2352,7 @@
       <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="61" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="41"/>
@@ -2388,7 +2361,7 @@
       <c r="B5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="61" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="41"/>
@@ -2398,7 +2371,7 @@
       <c r="B6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="61" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="40"/>
@@ -2407,7 +2380,7 @@
       <c r="B7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="61" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="41"/>
@@ -2416,7 +2389,7 @@
       <c r="B8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="40"/>
@@ -2426,7 +2399,7 @@
       <c r="B9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="61" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="40"/>
@@ -2435,7 +2408,7 @@
       <c r="B10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="61" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="40"/>
@@ -2444,7 +2417,7 @@
       <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="61" t="s">
         <v>174</v>
       </c>
       <c r="D11" s="40"/>
@@ -2453,7 +2426,7 @@
       <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="61" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="40"/>
@@ -2462,7 +2435,7 @@
       <c r="B13" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="61" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="40"/>
@@ -2471,7 +2444,7 @@
       <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="61" t="s">
         <v>168</v>
       </c>
       <c r="D14" s="40"/>
@@ -2480,7 +2453,7 @@
       <c r="B15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="61" t="s">
         <v>169</v>
       </c>
       <c r="D15" s="40"/>
@@ -2489,7 +2462,7 @@
       <c r="B16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="61" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="42"/>
@@ -2498,7 +2471,7 @@
       <c r="B17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="61" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="40"/>
@@ -2507,7 +2480,7 @@
       <c r="B18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="41"/>
@@ -2516,7 +2489,7 @@
       <c r="B19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="61" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="41"/>
@@ -2598,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
